--- a/data/2017Spring_CD_Involute/Involute_gear/Involute___Involute_Gear_Data.xlsx
+++ b/data/2017Spring_CD_Involute/Involute_gear/Involute___Involute_Gear_Data.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\N.F.U 資料庫\2017Spring_CD\Involute_gear\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>degree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +235,13 @@
   <si>
     <t>齒厚(齒頂寬)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齒數1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齒數2</t>
   </si>
 </sst>
 </file>
@@ -394,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,6 +486,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,7 +765,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1307,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1320,9 +1328,10 @@
     <col min="3" max="3" width="16.375" style="12" customWidth="1"/>
     <col min="4" max="4" width="35.625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="12" customWidth="1"/>
+    <col min="7" max="8" width="9" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
@@ -1338,8 +1347,14 @@
       <c r="E1" s="20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -1355,8 +1370,15 @@
       <c r="E2" s="25">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="25">
+        <f>E4</f>
+        <v>20</v>
+      </c>
+      <c r="H2" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1370,8 +1392,10 @@
       <c r="E3" s="17">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -1385,8 +1409,10 @@
       <c r="E4" s="25">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1400,8 +1426,10 @@
       <c r="E5" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -1418,8 +1446,10 @@
         <f>E4*E2</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1436,8 +1466,10 @@
         <f>E6*COS(E3*PI()/180)</f>
         <v>93.969262078590845</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -1454,8 +1486,10 @@
         <f>1*E2</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1472,8 +1506,10 @@
         <f>2.25*E2</f>
         <v>11.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -1490,8 +1526,10 @@
         <f>E6+2*E2*(1+E5)</f>
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1508,8 +1546,10 @@
         <f>E6-2.5*E2</f>
         <v>87.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -1526,8 +1566,10 @@
         <f>DEGREES(ACOS(E7/E10))</f>
         <v>31.32125792965132</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1544,8 +1586,10 @@
         <f>TAN(E3*(PI()/180))-(E3*(PI()/180))</f>
         <v>1.4904383867336446E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -1562,8 +1606,10 @@
         <f>TAN(E12*(PI()/180))-E12*(PI()/180)</f>
         <v>6.1858746362933981E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -1580,8 +1626,10 @@
         <f>E17*E10</f>
         <v>3.4743999228562021</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -1594,9 +1642,14 @@
       <c r="D16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="25">
+        <f>(G2+H2)*E2/2</f>
+        <v>125</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -1613,6 +1666,8 @@
         <f>PI()/(2*E4)+(2*E5*TAN(E3*(PI()/180)))/E4+(E13-E14)</f>
         <v>3.1585453844147293E-2</v>
       </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
